--- a/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>NJMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>800</v>
       </c>
       <c r="M9" s="3">
         <v>800</v>
       </c>
       <c r="N9" s="3">
+        <v>800</v>
+      </c>
+      <c r="O9" s="3">
+        <v>800</v>
+      </c>
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,31 +906,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
-        <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -917,16 +944,22 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,37 +1002,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,14 +1084,14 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="3">
         <v>1900</v>
       </c>
       <c r="F17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1208,66 +1275,78 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>200</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>200</v>
-      </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,54 +1387,66 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>200</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,17 +1854,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1736,66 +1875,78 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,43 +2149,49 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
-      </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
-        <v>200</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,19 +2234,25 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2079,28 +2264,34 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2117,13 +2308,13 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2140,11 +2331,17 @@
       <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2349,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2179,60 +2376,72 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>700</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2252,13 +2461,13 @@
         <v>500</v>
       </c>
       <c r="I47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J47" s="3">
         <v>500</v>
       </c>
       <c r="K47" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L47" s="3">
         <v>500</v>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>500</v>
+      </c>
+      <c r="R47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F48" s="3">
         <v>9800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>9700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>9200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>7800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>7800</v>
       </c>
       <c r="P48" s="3">
         <v>7800</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>7800</v>
+      </c>
+      <c r="R48" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2474,8 +2713,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2483,8 +2722,8 @@
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F54" s="3">
         <v>11200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>9400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>9300</v>
       </c>
       <c r="N54" s="3">
         <v>9400</v>
       </c>
       <c r="O54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="P54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>8900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,22 +2878,24 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -2643,28 +2904,34 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,40 +2942,46 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2728,119 +3001,137 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
       </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
       </c>
       <c r="I61" s="3">
+        <v>600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>600</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
-        <v>200</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2857,34 +3148,40 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>5600</v>
       </c>
       <c r="L66" s="3">
         <v>6100</v>
       </c>
       <c r="M66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N66" s="3">
         <v>6100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F76" s="3">
         <v>6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +4023,21 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -3658,10 +4055,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3993,13 +4434,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,37 +4539,43 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -4125,13 +4584,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>500</v>
       </c>
       <c r="O102" s="3">
         <v>-300</v>
       </c>
       <c r="P102" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>NJMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1000</v>
       </c>
       <c r="J8" s="3">
         <v>1000</v>
       </c>
       <c r="K8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1100</v>
       </c>
       <c r="M8" s="3">
         <v>1100</v>
       </c>
       <c r="N8" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="O8" s="3">
         <v>1300</v>
       </c>
       <c r="P8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,31 +804,31 @@
         <v>1300</v>
       </c>
       <c r="E9" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F9" s="3">
         <v>1400</v>
       </c>
       <c r="G9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1100</v>
       </c>
       <c r="L9" s="3">
         <v>1100</v>
       </c>
       <c r="M9" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="N9" s="3">
         <v>800</v>
@@ -830,66 +837,72 @@
         <v>800</v>
       </c>
       <c r="P9" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-600</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>500</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,11 +931,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
@@ -929,13 +943,13 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
-        <v>200</v>
-      </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -950,16 +964,19 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1034,14 +1054,14 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,11 +1113,11 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>100</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1400</v>
       </c>
       <c r="I17" s="3">
         <v>1400</v>
       </c>
       <c r="J17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1000</v>
       </c>
       <c r="O17" s="3">
         <v>1000</v>
       </c>
       <c r="P17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
       <c r="R17" s="3">
+        <v>800</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>200</v>
-      </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>300</v>
       </c>
       <c r="P18" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1281,22 +1315,25 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>200</v>
-      </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,10 +1433,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1447,52 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
       <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,99 +1606,105 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1881,72 +1951,78 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
       <c r="F41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
-        <v>200</v>
-      </c>
       <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,63 +2330,69 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2314,10 +2410,10 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2337,11 +2433,14 @@
       <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,10 +2448,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2382,66 +2481,72 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E46" s="3">
         <v>900</v>
       </c>
       <c r="F46" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
-      </c>
-      <c r="L46" s="3">
-        <v>800</v>
       </c>
       <c r="M46" s="3">
         <v>800</v>
       </c>
       <c r="N46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>900</v>
       </c>
       <c r="P46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2467,10 +2572,10 @@
         <v>500</v>
       </c>
       <c r="K47" s="3">
+        <v>500</v>
+      </c>
+      <c r="L47" s="3">
         <v>600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>500</v>
       </c>
       <c r="M47" s="3">
         <v>500</v>
@@ -2490,49 +2595,52 @@
       <c r="R47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E48" s="3">
         <v>10000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>8000</v>
       </c>
       <c r="N48" s="3">
         <v>8000</v>
       </c>
       <c r="O48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P48" s="3">
         <v>7900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>7800</v>
       </c>
       <c r="Q48" s="3">
         <v>7800</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>7800</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2719,14 +2839,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>10</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E54" s="3">
         <v>11500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>9400</v>
       </c>
       <c r="N54" s="3">
         <v>9400</v>
       </c>
       <c r="O54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="P54" s="3">
         <v>9300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,34 +3010,35 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -2916,11 +3047,11 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
-        <v>200</v>
-      </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
@@ -2930,13 +3061,16 @@
       <c r="R57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -2948,10 +3082,10 @@
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -2960,28 +3094,31 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3007,31 +3144,34 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>900</v>
       </c>
       <c r="R59" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,63 +3182,66 @@
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1500</v>
       </c>
       <c r="O60" s="3">
         <v>1500</v>
       </c>
       <c r="P60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>600</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
@@ -3107,31 +3250,34 @@
         <v>600</v>
       </c>
       <c r="K61" s="3">
+        <v>600</v>
+      </c>
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
-      </c>
-      <c r="N61" s="3">
-        <v>900</v>
       </c>
       <c r="O61" s="3">
         <v>900</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3154,7 +3300,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
@@ -3163,25 +3309,28 @@
         <v>600</v>
       </c>
       <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5200</v>
       </c>
       <c r="F66" s="3">
         <v>5200</v>
       </c>
       <c r="G66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H66" s="3">
         <v>5300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4600</v>
       </c>
       <c r="I66" s="3">
         <v>4600</v>
       </c>
       <c r="J66" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="K66" s="3">
         <v>5200</v>
       </c>
       <c r="L66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M66" s="3">
         <v>6100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>6100</v>
       </c>
       <c r="O66" s="3">
         <v>6100</v>
       </c>
       <c r="P66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,49 +3995,52 @@
         <v>5500</v>
       </c>
       <c r="E76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F76" s="3">
         <v>5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,13 +4233,13 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4061,7 +4260,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,16 +4539,19 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
@@ -4343,40 +4560,43 @@
         <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4440,13 +4661,16 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-300</v>
       </c>
       <c r="O100" s="3">
         <v>-300</v>
       </c>
       <c r="P100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,45 +5176,48 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NJMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,180 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1000</v>
       </c>
       <c r="K8" s="3">
         <v>1000</v>
       </c>
       <c r="L8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1100</v>
       </c>
       <c r="N8" s="3">
         <v>1100</v>
       </c>
       <c r="O8" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="P8" s="3">
         <v>1300</v>
       </c>
       <c r="Q8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E9" s="3">
         <v>1300</v>
       </c>
       <c r="F9" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G9" s="3">
         <v>1400</v>
       </c>
       <c r="H9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1100</v>
       </c>
       <c r="M9" s="3">
         <v>1100</v>
       </c>
       <c r="N9" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="O9" s="3">
         <v>800</v>
@@ -840,69 +847,75 @@
         <v>800</v>
       </c>
       <c r="Q9" s="3">
+        <v>800</v>
+      </c>
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-600</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>500</v>
       </c>
       <c r="P10" s="3">
         <v>500</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,11 +948,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
@@ -946,13 +960,13 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
-        <v>200</v>
-      </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -967,16 +981,19 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1057,14 +1077,14 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,11 +1139,11 @@
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1400</v>
       </c>
       <c r="J17" s="3">
         <v>1400</v>
       </c>
       <c r="K17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
       </c>
       <c r="P17" s="3">
         <v>1000</v>
       </c>
       <c r="Q17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="R17" s="3">
         <v>800</v>
       </c>
       <c r="S17" s="3">
+        <v>800</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>300</v>
       </c>
       <c r="Q18" s="3">
+        <v>300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1297,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1318,75 +1352,81 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>200</v>
-      </c>
       <c r="S20" s="3">
+        <v>200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,63 +1476,69 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1933,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1954,75 +2024,81 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>200</v>
-      </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
-        <v>200</v>
-      </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,70 +2423,76 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
-        <v>200</v>
-      </c>
       <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>200</v>
-      </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>200</v>
-      </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
@@ -2413,10 +2509,10 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2436,11 +2532,14 @@
       <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,10 +2550,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2484,69 +2583,75 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>900</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>800</v>
       </c>
       <c r="I46" s="3">
+        <v>800</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>800</v>
       </c>
       <c r="O46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P46" s="3">
         <v>900</v>
       </c>
       <c r="Q46" s="3">
+        <v>900</v>
+      </c>
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2575,10 +2680,10 @@
         <v>500</v>
       </c>
       <c r="L47" s="3">
+        <v>500</v>
+      </c>
+      <c r="M47" s="3">
         <v>600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>500</v>
       </c>
       <c r="N47" s="3">
         <v>500</v>
@@ -2598,52 +2703,55 @@
       <c r="S47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E48" s="3">
         <v>9900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>8000</v>
       </c>
       <c r="O48" s="3">
         <v>8000</v>
       </c>
       <c r="P48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>7800</v>
       </c>
       <c r="R48" s="3">
         <v>7800</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>7800</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,14 +2962,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>10</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>10</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>9400</v>
       </c>
       <c r="O54" s="3">
         <v>9400</v>
       </c>
       <c r="P54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>9300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,37 +3141,38 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -3050,11 +3181,11 @@
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
-        <v>200</v>
-      </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
@@ -3064,16 +3195,19 @@
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -3085,10 +3219,10 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -3097,28 +3231,31 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3147,36 +3284,39 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
       <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>1000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>900</v>
       </c>
       <c r="S59" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
@@ -3185,66 +3325,69 @@
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1500</v>
       </c>
       <c r="P60" s="3">
         <v>1500</v>
       </c>
       <c r="Q60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
@@ -3253,31 +3396,34 @@
         <v>600</v>
       </c>
       <c r="L61" s="3">
+        <v>600</v>
+      </c>
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>900</v>
       </c>
       <c r="P61" s="3">
         <v>900</v>
       </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="R61" s="3">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3303,7 +3449,7 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -3312,25 +3458,28 @@
         <v>600</v>
       </c>
       <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5200</v>
       </c>
       <c r="G66" s="3">
         <v>5200</v>
       </c>
       <c r="H66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I66" s="3">
         <v>5300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4600</v>
       </c>
       <c r="J66" s="3">
         <v>4600</v>
       </c>
       <c r="K66" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="L66" s="3">
         <v>5200</v>
       </c>
       <c r="M66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N66" s="3">
         <v>6100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>6100</v>
       </c>
       <c r="P66" s="3">
         <v>6100</v>
       </c>
       <c r="Q66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="E76" s="3">
         <v>5500</v>
       </c>
       <c r="F76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G76" s="3">
         <v>5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,25 +4422,26 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4263,7 +4462,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4756,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>100</v>
@@ -4563,40 +4780,43 @@
         <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4664,13 +4885,16 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-300</v>
       </c>
       <c r="P100" s="3">
         <v>-300</v>
       </c>
       <c r="Q100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>NJMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,55 +762,61 @@
         <v>1600</v>
       </c>
       <c r="E8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,55 +824,61 @@
         <v>1700</v>
       </c>
       <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>800</v>
-      </c>
-      <c r="P9" s="3">
-        <v>800</v>
       </c>
       <c r="Q9" s="3">
         <v>800</v>
       </c>
       <c r="R9" s="3">
+        <v>800</v>
+      </c>
+      <c r="S9" s="3">
+        <v>800</v>
+      </c>
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,52 +889,58 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-600</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
-        <v>200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,43 +961,45 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
-      </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
-        <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -984,16 +1011,22 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>200</v>
+      </c>
+      <c r="V12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1057,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1080,17 +1119,17 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1104,31 +1143,37 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1142,14 +1187,14 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1700</v>
       </c>
       <c r="I17" s="3">
         <v>1900</v>
       </c>
       <c r="J17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>-1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
-      </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,20 +1378,22 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1334,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1355,78 +1422,90 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>200</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>200</v>
+      </c>
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>-1400</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>200</v>
-      </c>
       <c r="Q21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1479,66 +1558,78 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>200</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>200</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>200</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>200</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,20 +2118,26 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2006,17 +2145,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2027,78 +2166,90 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>200</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>200</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>200</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
-      </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
-        <v>200</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,31 +2605,37 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2462,43 +2647,49 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
-        <v>200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
-      </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
@@ -2512,13 +2703,13 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2535,31 +2726,37 @@
       <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2586,72 +2783,84 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>800</v>
+      </c>
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2683,13 +2892,13 @@
         <v>500</v>
       </c>
       <c r="M47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N47" s="3">
         <v>500</v>
       </c>
       <c r="O47" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P47" s="3">
         <v>500</v>
@@ -2706,64 +2915,76 @@
       <c r="T47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>500</v>
+      </c>
+      <c r="V47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F48" s="3">
         <v>10300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>9900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>10000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>9100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>7800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>7800</v>
       </c>
       <c r="T48" s="3">
         <v>7800</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>7800</v>
+      </c>
+      <c r="V48" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2965,8 +3204,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2974,8 +3213,8 @@
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>10</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>10</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E54" s="3">
         <v>14700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G54" s="3">
         <v>11600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>9400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>9300</v>
       </c>
       <c r="R54" s="3">
         <v>9400</v>
       </c>
       <c r="S54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="T54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="U54" s="3">
         <v>8900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,25 +3412,25 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -3178,42 +3439,48 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
-        <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -3222,40 +3489,46 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3287,143 +3560,161 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2100</v>
+        <v>4100</v>
       </c>
       <c r="E61" s="3">
         <v>2000</v>
       </c>
       <c r="F61" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H61" s="3">
         <v>1900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>600</v>
       </c>
       <c r="L61" s="3">
         <v>600</v>
       </c>
       <c r="M61" s="3">
+        <v>600</v>
+      </c>
+      <c r="N61" s="3">
+        <v>600</v>
+      </c>
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>900</v>
       </c>
-      <c r="R61" s="3">
-        <v>200</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
         <v>800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3452,34 +3743,40 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
       </c>
       <c r="O62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
       </c>
       <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
+        <v>600</v>
+      </c>
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>6100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>5600</v>
       </c>
       <c r="P66" s="3">
         <v>6100</v>
       </c>
       <c r="Q66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R66" s="3">
         <v>6100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F76" s="3">
         <v>8500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>200</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,22 +4829,22 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4465,10 +4862,10 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,10 +5287,10 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4888,13 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,49 +5458,55 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -5056,13 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R102" s="3">
-        <v>500</v>
       </c>
       <c r="S102" s="3">
         <v>-300</v>
       </c>
       <c r="T102" s="3">
+        <v>500</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,202 +665,209 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1000</v>
       </c>
       <c r="N8" s="3">
         <v>1000</v>
       </c>
       <c r="O8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1100</v>
       </c>
       <c r="Q8" s="3">
         <v>1100</v>
       </c>
       <c r="R8" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="S8" s="3">
         <v>1300</v>
       </c>
       <c r="T8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1300</v>
       </c>
       <c r="H9" s="3">
         <v>1300</v>
       </c>
       <c r="I9" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J9" s="3">
         <v>1400</v>
       </c>
       <c r="K9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1100</v>
       </c>
       <c r="P9" s="3">
         <v>1100</v>
       </c>
       <c r="Q9" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="R9" s="3">
         <v>800</v>
@@ -869,78 +876,84 @@
         <v>800</v>
       </c>
       <c r="T9" s="3">
+        <v>800</v>
+      </c>
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-600</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>500</v>
       </c>
       <c r="S10" s="3">
         <v>500</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,19 +976,20 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
-        <v>200</v>
-      </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -984,11 +998,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
-      </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
@@ -996,13 +1010,13 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
-        <v>200</v>
-      </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1017,16 +1031,19 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1125,14 +1145,14 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1175,8 +1198,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1193,11 +1216,11 @@
       <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="3">
-        <v>100</v>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1400</v>
       </c>
       <c r="M17" s="3">
         <v>1400</v>
       </c>
       <c r="N17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1000</v>
       </c>
       <c r="S17" s="3">
         <v>1000</v>
       </c>
       <c r="T17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="U17" s="3">
         <v>800</v>
       </c>
       <c r="V17" s="3">
+        <v>800</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>200</v>
-      </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>300</v>
       </c>
       <c r="T18" s="3">
+        <v>300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,14 +1423,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1407,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1428,89 +1462,95 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>200</v>
-      </c>
       <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1564,72 +1604,78 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>200</v>
-      </c>
       <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>200</v>
-      </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>200</v>
-      </c>
       <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,14 +2203,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2151,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2172,84 +2242,90 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>200</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>200</v>
-      </c>
       <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>200</v>
-      </c>
       <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>200</v>
-      </c>
       <c r="J41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
-        <v>200</v>
-      </c>
       <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>200</v>
-      </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>200</v>
-      </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,17 +2778,17 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
-        <v>200</v>
-      </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
-        <v>200</v>
-      </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
@@ -2709,10 +2805,10 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2732,22 +2828,25 @@
       <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="V44" s="3">
+        <v>200</v>
+      </c>
+      <c r="W44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2756,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2789,78 +2888,84 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>900</v>
       </c>
       <c r="I46" s="3">
         <v>900</v>
       </c>
       <c r="J46" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
       <c r="L46" s="3">
+        <v>800</v>
+      </c>
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>800</v>
       </c>
       <c r="Q46" s="3">
         <v>800</v>
       </c>
       <c r="R46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>900</v>
       </c>
       <c r="T46" s="3">
+        <v>900</v>
+      </c>
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2898,10 +3003,10 @@
         <v>500</v>
       </c>
       <c r="O47" s="3">
+        <v>500</v>
+      </c>
+      <c r="P47" s="3">
         <v>600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>500</v>
       </c>
       <c r="Q47" s="3">
         <v>500</v>
@@ -2921,61 +3026,64 @@
       <c r="V47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E48" s="3">
         <v>11500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>8000</v>
       </c>
       <c r="R48" s="3">
         <v>8000</v>
       </c>
       <c r="S48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T48" s="3">
         <v>7900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>7800</v>
       </c>
       <c r="U48" s="3">
         <v>7800</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>7800</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3210,14 +3330,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>10</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>10</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E54" s="3">
         <v>15700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>14700</v>
       </c>
       <c r="F54" s="3">
         <v>14700</v>
       </c>
       <c r="G54" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H54" s="3">
         <v>11600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>9400</v>
       </c>
       <c r="R54" s="3">
         <v>9400</v>
       </c>
       <c r="S54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="T54" s="3">
         <v>9300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,46 +3533,47 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -3451,11 +3582,11 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
-        <v>200</v>
-      </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
@@ -3465,25 +3596,28 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3495,10 +3629,10 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -3507,33 +3641,36 @@
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3566,45 +3703,48 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
       <c r="T59" s="3">
+        <v>700</v>
+      </c>
+      <c r="U59" s="3">
         <v>1000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>900</v>
       </c>
       <c r="V59" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>900</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
@@ -3613,75 +3753,78 @@
         <v>900</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1500</v>
       </c>
       <c r="S60" s="3">
         <v>1500</v>
       </c>
       <c r="T60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U60" s="3">
         <v>2700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E61" s="3">
         <v>4100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>600</v>
@@ -3690,31 +3833,34 @@
         <v>600</v>
       </c>
       <c r="O61" s="3">
+        <v>600</v>
+      </c>
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>900</v>
       </c>
       <c r="S61" s="3">
         <v>900</v>
       </c>
       <c r="T61" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="U61" s="3">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
         <v>800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3749,7 +3895,7 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
@@ -3758,25 +3904,28 @@
         <v>600</v>
       </c>
       <c r="Q62" s="3">
+        <v>600</v>
+      </c>
+      <c r="R62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>5200</v>
       </c>
       <c r="J66" s="3">
         <v>5200</v>
       </c>
       <c r="K66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L66" s="3">
         <v>5300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4600</v>
       </c>
       <c r="M66" s="3">
         <v>4600</v>
       </c>
       <c r="N66" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="O66" s="3">
         <v>5200</v>
       </c>
       <c r="P66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>6100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>6100</v>
       </c>
       <c r="S66" s="3">
         <v>6100</v>
       </c>
       <c r="T66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="U66" s="3">
         <v>6500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>5500</v>
       </c>
       <c r="H76" s="3">
         <v>5500</v>
       </c>
       <c r="I76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J76" s="3">
         <v>5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>200</v>
-      </c>
       <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,19 +5034,19 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4868,7 +5067,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,28 +5406,31 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>100</v>
@@ -5222,40 +5439,43 @@
         <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,23 +5498,24 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>100</v>
-      </c>
       <c r="F91" s="3">
+        <v>100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5335,13 +5556,16 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>-400</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-300</v>
       </c>
       <c r="S100" s="3">
         <v>-300</v>
       </c>
       <c r="T100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NJMC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1000</v>
       </c>
       <c r="O8" s="3">
         <v>1000</v>
       </c>
       <c r="P8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1100</v>
       </c>
       <c r="R8" s="3">
         <v>1100</v>
       </c>
       <c r="S8" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="T8" s="3">
         <v>1300</v>
       </c>
       <c r="U8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,46 +838,46 @@
         <v>1800</v>
       </c>
       <c r="E9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1300</v>
       </c>
       <c r="I9" s="3">
         <v>1300</v>
       </c>
       <c r="J9" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K9" s="3">
         <v>1400</v>
       </c>
       <c r="L9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1100</v>
       </c>
       <c r="Q9" s="3">
         <v>1100</v>
       </c>
       <c r="R9" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="S9" s="3">
         <v>800</v>
@@ -879,81 +886,87 @@
         <v>800</v>
       </c>
       <c r="U9" s="3">
+        <v>800</v>
+      </c>
+      <c r="V9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-600</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>500</v>
       </c>
       <c r="T10" s="3">
         <v>500</v>
       </c>
       <c r="U10" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,22 +990,23 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
-        <v>200</v>
-      </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1001,11 +1015,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
@@ -1013,13 +1027,13 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
-        <v>200</v>
-      </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1034,16 +1048,19 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1119,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1148,14 +1168,14 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1201,8 +1224,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
@@ -1219,11 +1242,11 @@
       <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="3">
-        <v>100</v>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,129 +1295,135 @@
         <v>2300</v>
       </c>
       <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1400</v>
       </c>
       <c r="N17" s="3">
         <v>1400</v>
       </c>
       <c r="O17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1000</v>
       </c>
       <c r="T17" s="3">
         <v>1000</v>
       </c>
       <c r="U17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="V17" s="3">
         <v>800</v>
       </c>
       <c r="W17" s="3">
+        <v>800</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>200</v>
-      </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>300</v>
       </c>
       <c r="U18" s="3">
+        <v>300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,14 +1460,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1444,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1465,87 +1499,93 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>200</v>
-      </c>
       <c r="W20" s="3">
+        <v>200</v>
+      </c>
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>200</v>
       </c>
       <c r="U21" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
       <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1593,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1607,75 +1647,81 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>200</v>
-      </c>
       <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
       <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,14 +2276,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2224,13 +2294,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2245,87 +2315,93 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>200</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
       <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
       <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>200</v>
-      </c>
       <c r="K41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
-        <v>200</v>
-      </c>
       <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>200</v>
-      </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>200</v>
-      </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2781,17 +2877,17 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
-        <v>200</v>
-      </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
-        <v>200</v>
-      </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
@@ -2808,10 +2904,10 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -2831,11 +2927,14 @@
       <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="W44" s="3">
+        <v>200</v>
+      </c>
+      <c r="X44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,13 +2942,13 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2858,10 +2957,10 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2891,86 +2990,92 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
       </c>
       <c r="K46" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L46" s="3">
         <v>800</v>
       </c>
       <c r="M46" s="3">
+        <v>800</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>800</v>
       </c>
       <c r="S46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T46" s="3">
         <v>900</v>
       </c>
       <c r="U46" s="3">
+        <v>900</v>
+      </c>
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
@@ -3006,10 +3111,10 @@
         <v>500</v>
       </c>
       <c r="P47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q47" s="3">
         <v>600</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>500</v>
       </c>
       <c r="R47" s="3">
         <v>500</v>
@@ -3029,64 +3134,67 @@
       <c r="W47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>8000</v>
       </c>
       <c r="S48" s="3">
         <v>8000</v>
       </c>
       <c r="T48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="U48" s="3">
         <v>7900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>7800</v>
       </c>
       <c r="V48" s="3">
         <v>7800</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>7800</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3333,14 +3453,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>10</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>10</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E54" s="3">
         <v>16100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>14700</v>
       </c>
       <c r="G54" s="3">
         <v>14700</v>
       </c>
       <c r="H54" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I54" s="3">
         <v>11600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>9400</v>
       </c>
       <c r="S54" s="3">
         <v>9400</v>
       </c>
       <c r="T54" s="3">
+        <v>9400</v>
+      </c>
+      <c r="U54" s="3">
         <v>9300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,40 +3674,40 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -3585,11 +3716,11 @@
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
-        <v>200</v>
-      </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,19 +3742,19 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -3632,10 +3766,10 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -3644,28 +3778,31 @@
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,7 +3810,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3706,31 +3843,34 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>1000</v>
-      </c>
-      <c r="V59" s="3">
-        <v>900</v>
       </c>
       <c r="W59" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,16 +3878,16 @@
         <v>1500</v>
       </c>
       <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
@@ -3756,78 +3896,81 @@
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1500</v>
       </c>
       <c r="T60" s="3">
         <v>1500</v>
       </c>
       <c r="U60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>600</v>
@@ -3836,31 +3979,34 @@
         <v>600</v>
       </c>
       <c r="P61" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
-      </c>
-      <c r="S61" s="3">
-        <v>900</v>
       </c>
       <c r="T61" s="3">
         <v>900</v>
       </c>
       <c r="U61" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="V61" s="3">
+        <v>200</v>
+      </c>
+      <c r="W61" s="3">
         <v>800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3898,7 +4044,7 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
@@ -3907,25 +4053,28 @@
         <v>600</v>
       </c>
       <c r="R62" s="3">
+        <v>600</v>
+      </c>
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5200</v>
       </c>
       <c r="K66" s="3">
         <v>5200</v>
       </c>
       <c r="L66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M66" s="3">
         <v>5300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>4600</v>
       </c>
       <c r="N66" s="3">
         <v>4600</v>
       </c>
       <c r="O66" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="P66" s="3">
         <v>5200</v>
       </c>
       <c r="Q66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R66" s="3">
         <v>6100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
-      </c>
-      <c r="S66" s="3">
-        <v>6100</v>
       </c>
       <c r="T66" s="3">
         <v>6100</v>
       </c>
       <c r="U66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="V66" s="3">
         <v>6500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,64 +4924,67 @@
         <v>8000</v>
       </c>
       <c r="E76" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F76" s="3">
         <v>7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5500</v>
       </c>
       <c r="I76" s="3">
         <v>5500</v>
       </c>
       <c r="J76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
       <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,19 +5236,19 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -5070,7 +5269,7 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,22 +5635,22 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
@@ -5442,40 +5659,43 @@
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,26 +5719,27 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>100</v>
-      </c>
       <c r="G91" s="3">
+        <v>100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5559,13 +5780,16 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-400</v>
       </c>
       <c r="G94" s="3">
         <v>-400</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-300</v>
       </c>
       <c r="T100" s="3">
         <v>-300</v>
       </c>
       <c r="U100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
     </row>
